--- a/rnaSample/rnaSample_3275.xlsx
+++ b/rnaSample/rnaSample_3275.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,12 +101,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +161,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,7 +185,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G35"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -199,7 +193,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/rnaSample/rnaSample_3275.xlsx
+++ b/rnaSample/rnaSample_3275.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB4A1D-48B8-9648-8162-0E122FFCA504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48472912-F3F5-514C-8555-3E6816DBB937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="15">
   <si>
     <t>harvestDate</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B35"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,22 +566,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
@@ -592,22 +592,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
@@ -624,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -633,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
@@ -650,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -659,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -670,22 +670,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
@@ -696,22 +696,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>9</v>
@@ -722,22 +722,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>9</v>
@@ -748,22 +748,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>9</v>
@@ -774,22 +774,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>9</v>
@@ -800,22 +800,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
@@ -826,22 +826,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -852,22 +852,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>9</v>
@@ -878,22 +878,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -904,22 +904,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>9</v>
@@ -930,22 +930,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
@@ -956,22 +956,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>9</v>
@@ -982,22 +982,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
@@ -1014,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
@@ -1034,22 +1034,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>9</v>
@@ -1066,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1075,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>9</v>
@@ -1086,22 +1086,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>9</v>
@@ -1112,22 +1112,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>9</v>
@@ -1138,22 +1138,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>9</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>9</v>
@@ -1190,22 +1190,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>9</v>
@@ -1216,22 +1216,22 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>9</v>
@@ -1242,22 +1242,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>9</v>
@@ -1268,22 +1268,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
       </c>
       <c r="F32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>9</v>
@@ -1300,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1309,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>9</v>
@@ -1326,7 +1326,7 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1335,38 +1335,12 @@
         <v>13</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_3275.xlsx
+++ b/rnaSample/rnaSample_3275.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48472912-F3F5-514C-8555-3E6816DBB937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06CF07-3333-784F-97D5-800D9EC5EBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="460" windowWidth="16380" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="17">
   <si>
     <t>harvestDate</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>08.13.18</t>
+  </si>
+  <si>
+    <t>10.16.18</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1344,6 +1350,87 @@
         <v>14</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rnaSample/rnaSample_3275.xlsx
+++ b/rnaSample/rnaSample_3275.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06CF07-3333-784F-97D5-800D9EC5EBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A89F9-C82B-9C4E-9F3F-11129CCC6551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="460" windowWidth="16380" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="18">
   <si>
     <t>harvestDate</t>
   </si>
@@ -76,22 +76,17 @@
   </si>
   <si>
     <t>10.16.18</t>
+  </si>
+  <si>
+    <t>11.01.18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -107,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -115,32 +110,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,28 +442,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -511,10 +486,10 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -537,10 +512,10 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -563,10 +538,10 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -589,10 +564,10 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -615,10 +590,10 @@
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -641,10 +616,10 @@
       <c r="F7">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -667,10 +642,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -693,10 +668,10 @@
       <c r="F9">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -719,10 +694,10 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -745,10 +720,10 @@
       <c r="F11">
         <v>11</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -771,10 +746,10 @@
       <c r="F12">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -797,10 +772,10 @@
       <c r="F13">
         <v>13</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -823,10 +798,10 @@
       <c r="F14">
         <v>14</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -849,10 +824,10 @@
       <c r="F15">
         <v>15</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -875,10 +850,10 @@
       <c r="F16">
         <v>16</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -901,10 +876,10 @@
       <c r="F17">
         <v>17</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -927,10 +902,10 @@
       <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -953,10 +928,10 @@
       <c r="F19">
         <v>19</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -979,10 +954,10 @@
       <c r="F20">
         <v>20</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1005,10 +980,10 @@
       <c r="F21">
         <v>21</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1031,10 +1006,10 @@
       <c r="F22">
         <v>22</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1057,10 +1032,10 @@
       <c r="F23">
         <v>23</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1083,10 +1058,10 @@
       <c r="F24">
         <v>24</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1109,10 +1084,10 @@
       <c r="F25">
         <v>25</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1135,10 +1110,10 @@
       <c r="F26">
         <v>26</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1161,10 +1136,10 @@
       <c r="F27">
         <v>27</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1187,10 +1162,10 @@
       <c r="F28">
         <v>28</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1213,10 +1188,10 @@
       <c r="F29">
         <v>29</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1239,10 +1214,10 @@
       <c r="F30">
         <v>30</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1265,10 +1240,10 @@
       <c r="F31">
         <v>31</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1291,10 +1266,10 @@
       <c r="F32">
         <v>32</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1317,10 +1292,10 @@
       <c r="F33">
         <v>33</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1343,10 +1318,10 @@
       <c r="F34">
         <v>34</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1369,10 +1344,10 @@
       <c r="F35">
         <v>35</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1395,10 +1370,10 @@
       <c r="F36">
         <v>36</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1421,15 +1396,116 @@
       <c r="F37">
         <v>37</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H38" s="3"/>
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
